--- a/biology/Médecine/Hyperreligiosité/Hyperreligiosité.xlsx
+++ b/biology/Médecine/Hyperreligiosité/Hyperreligiosité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperreligiosit%C3%A9</t>
+          <t>Hyperreligiosité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hyperreligiosité[1] est définie par un intérêt pathologique pour la religion.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hyperreligiosité est définie par un intérêt pathologique pour la religion.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperreligiosit%C3%A9</t>
+          <t>Hyperreligiosité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Neurologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les individus atteints de troubles neurologiques peuvent présenter des modifications du comportement comme des délires religieux sous forme d’hallucinations auditives telles la voix de Dieu, une sensation corporelle 
-anormale ou douloureuse à caractère souvent hallucinatoire (cénesthopathies) pouvant perdurer plusieurs années après le traumatisme crânien[2].
+anormale ou douloureuse à caractère souvent hallucinatoire (cénesthopathies) pouvant perdurer plusieurs années après le traumatisme crânien.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperreligiosit%C3%A9</t>
+          <t>Hyperreligiosité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Psychologie : troubles psychotiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut se manifester sous forme de troubles psychotiques à contenu religieux comme le délire d’identité ; l'individu se prenant pour un personnage mythologique ou prophétique ou encore sous la forme de posture catatonique comme la crucifixion.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperreligiosit%C3%A9</t>
+          <t>Hyperreligiosité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Épilepsie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des délires religieux comprenant la conversion religieuse, la lecture compulsive de livres sacrés, l'hypergraphie
-sur les thèmes religieux ont également été décrits dans l’épilepsie temporale[3].
+sur les thèmes religieux ont également été décrits dans l’épilepsie temporale.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyperreligiosit%C3%A9</t>
+          <t>Hyperreligiosité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Troubles obsessionnels compulsifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs auteurs établissent une relation comportementale entre l'hyperreligiosité et les troubles obsessionnels compulsifs (TOC) [4]. En effet, ces comportements sont associés au « lavage » des péchés, à la « purification » de l'âme, soit un déplacement du lavage à l'abstraction qu'est la moralité. Ce type de pathologie associe également souvent une peur de la « faute » ou de l'« erreur » soit un TOC de vérification.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs auteurs établissent une relation comportementale entre l'hyperreligiosité et les troubles obsessionnels compulsifs (TOC) . En effet, ces comportements sont associés au « lavage » des péchés, à la « purification » de l'âme, soit un déplacement du lavage à l'abstraction qu'est la moralité. Ce type de pathologie associe également souvent une peur de la « faute » ou de l'« erreur » soit un TOC de vérification.
 </t>
         </is>
       </c>
